--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042550.374215677</v>
+        <v>1038211.362148938</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22012922.25143359</v>
+        <v>22012922.25143361</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053143</v>
+        <v>7098937.042053146</v>
       </c>
     </row>
     <row r="9">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>43.84493131260647</v>
+        <v>96.9315699226279</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>402.6471267764352</v>
@@ -1390,7 +1390,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I11" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>51.83036283416909</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>36.73287622654706</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9213814272745</v>
@@ -1590,7 +1590,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.0554989157349</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>149.084334504942</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T14" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222338</v>
       </c>
       <c r="T15" t="n">
         <v>153.4484244137338</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
         <v>88.28603573286844</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.20525872441498</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.9411860548871</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>112.0508685848385</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.18705971678192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>132.4990169772547</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.9250169291487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.09445372222338</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T18" t="n">
         <v>153.4484244137338</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.3670364314046</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I19" t="n">
         <v>88.28603573286844</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441498</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S19" t="n">
         <v>168.9411860548871</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>16.0092065928977</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.6471267764352</v>
+        <v>330.7680801239728</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>139.5937100144484</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.28603573286844</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.20525872441498</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S22" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.0269085546502</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9213814272745</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>128.2139414602815</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2326,13 +2326,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>356.8106051382571</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>328.5205521226928</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2493,7 +2493,7 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
         <v>88.28603573286844</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U25" t="n">
-        <v>148.7245960572558</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>208.5532921238595</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2557,22 +2557,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>211.2562336341194</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>152.1776661017149</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>41.04528375339065</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>137.7405345052231</v>
+        <v>7.089358588750837</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.28603573286844</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.20525872441498</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S28" t="n">
         <v>168.9411860548871</v>
@@ -2769,7 +2769,7 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2800,19 +2800,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>246.4288498172345</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>145.5543715041379</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2967,10 +2967,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.20525872441498</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S31" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3317950548276</v>
+        <v>201.3037094506242</v>
       </c>
       <c r="U31" t="n">
-        <v>195.8815854581225</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>355.7718237621382</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>88.49284952069371</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>255.0482486106826</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3204,10 +3204,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I34" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U34" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9501022398545</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>227.4193046987093</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>262.6783126112181</v>
       </c>
       <c r="G35" t="n">
-        <v>252.0527533236809</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>31.32140702749938</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.28603573286844</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441498</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.9411860548871</v>
@@ -3480,16 +3480,16 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>144.9293499889218</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3505,25 +3505,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>127.6394787693225</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T38" t="n">
-        <v>92.83852057803992</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3303768639121</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>132.655120538544</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.1830122943747</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>30.86696706768567</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U40" t="n">
         <v>279.9213814272745</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>292.9490131812722</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>340.545602844375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.8533946561529</v>
+        <v>104.8533946561527</v>
       </c>
       <c r="H42" t="n">
         <v>59.73653548534392</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222361</v>
       </c>
       <c r="T42" t="n">
         <v>153.4484244137338</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>122.5566239083246</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441498</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.45606681606043</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>329.6983678823618</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.619398793447971</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>274.9432334606984</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H45" t="n">
-        <v>59.73653548534411</v>
+        <v>59.73653548534392</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I46" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441498</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S46" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>35.65881628494831</v>
       </c>
       <c r="V46" t="n">
-        <v>261.360547268693</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2030.43425481942</v>
+        <v>835.5161012381898</v>
       </c>
       <c r="C11" t="n">
-        <v>1986.146445412747</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.682515505807</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="E11" t="n">
-        <v>1167.342300022704</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="F11" t="n">
-        <v>746.3118879763917</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="G11" t="n">
-        <v>339.5976185052451</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H11" t="n">
-        <v>49.31514852411362</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I11" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J11" t="n">
-        <v>135.5536585935969</v>
+        <v>416.0853656505568</v>
       </c>
       <c r="K11" t="n">
-        <v>298.4006618101653</v>
+        <v>578.9323688671252</v>
       </c>
       <c r="L11" t="n">
-        <v>515.3719827698307</v>
+        <v>795.9036898267907</v>
       </c>
       <c r="M11" t="n">
-        <v>769.6205054001883</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N11" t="n">
-        <v>1029.851627328779</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O11" t="n">
-        <v>1366.316169608896</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P11" t="n">
-        <v>1868.848647676702</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q11" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R11" t="n">
         <v>2030.43425481942</v>
@@ -5080,13 +5080,13 @@
         <v>2030.43425481942</v>
       </c>
       <c r="W11" t="n">
-        <v>2030.43425481942</v>
+        <v>1646.673953954589</v>
       </c>
       <c r="X11" t="n">
-        <v>2030.43425481942</v>
+        <v>1646.673953954589</v>
       </c>
       <c r="Y11" t="n">
-        <v>2030.43425481942</v>
+        <v>1245.737280902679</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I12" t="n">
-        <v>56.63600629456042</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J12" t="n">
         <v>349.2317580283647</v>
       </c>
       <c r="K12" t="n">
-        <v>464.5090923956752</v>
+        <v>464.5090923956753</v>
       </c>
       <c r="L12" t="n">
-        <v>638.2743237270163</v>
+        <v>638.2743237270164</v>
       </c>
       <c r="M12" t="n">
-        <v>848.8896843239891</v>
+        <v>848.8896843239893</v>
       </c>
       <c r="N12" t="n">
-        <v>1108.568211643437</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.678898104414</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P12" t="n">
         <v>1450.639945261231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R12" t="n">
         <v>2030.43425481942</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.96258694908445</v>
+        <v>823.020372484786</v>
       </c>
       <c r="C13" t="n">
-        <v>40.60868509638841</v>
+        <v>651.9270000465025</v>
       </c>
       <c r="D13" t="n">
-        <v>40.60868509638841</v>
+        <v>492.4323553694125</v>
       </c>
       <c r="E13" t="n">
-        <v>40.60868509638841</v>
+        <v>331.521540237732</v>
       </c>
       <c r="F13" t="n">
-        <v>40.60868509638841</v>
+        <v>166.8904143483232</v>
       </c>
       <c r="G13" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H13" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I13" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J13" t="n">
-        <v>52.2904519997555</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K13" t="n">
-        <v>103.434571070691</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L13" t="n">
-        <v>494.9723944820012</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M13" t="n">
-        <v>923.033136073047</v>
+        <v>1108.983026439427</v>
       </c>
       <c r="N13" t="n">
-        <v>1339.368328670815</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O13" t="n">
-        <v>1724.081804549733</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P13" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q13" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S13" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T13" t="n">
-        <v>1579.446133774845</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U13" t="n">
-        <v>1296.697263646284</v>
+        <v>1747.68538469086</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.811518585806</v>
+        <v>1473.799639630382</v>
       </c>
       <c r="W13" t="n">
-        <v>743.7418540946808</v>
+        <v>1473.799639630382</v>
       </c>
       <c r="X13" t="n">
-        <v>505.3979919543642</v>
+        <v>1235.455777490066</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.6622933431289</v>
+        <v>1010.72007887883</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1433.28381897063</v>
+        <v>463.6553640072169</v>
       </c>
       <c r="C14" t="n">
-        <v>1433.28381897063</v>
+        <v>463.6553640072169</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.693582096951</v>
+        <v>463.6553640072169</v>
       </c>
       <c r="E14" t="n">
-        <v>868.3533666138476</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="F14" t="n">
-        <v>447.3229545675351</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="G14" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="H14" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="I14" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>203.3955578754598</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K14" t="n">
-        <v>705.9280359432663</v>
+        <v>705.9280359432661</v>
       </c>
       <c r="L14" t="n">
-        <v>922.8993569029317</v>
+        <v>922.8993569029315</v>
       </c>
       <c r="M14" t="n">
         <v>1177.147879533289</v>
@@ -5305,25 +5305,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T14" t="n">
-        <v>1817.044119835461</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U14" t="n">
-        <v>1817.044119835461</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V14" t="n">
-        <v>1817.044119835461</v>
+        <v>1120.920477914764</v>
       </c>
       <c r="W14" t="n">
-        <v>1433.28381897063</v>
+        <v>1120.920477914764</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.28381897063</v>
+        <v>720.2770800837168</v>
       </c>
       <c r="Y14" t="n">
-        <v>1433.28381897063</v>
+        <v>720.2770800837168</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>687.2060646415979</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C15" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D15" t="n">
         <v>436.3138356099362</v>
@@ -5345,7 +5345,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F15" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G15" t="n">
         <v>100.9486199300691</v>
@@ -5357,28 +5357,28 @@
         <v>56.63600629456042</v>
       </c>
       <c r="J15" t="n">
-        <v>105.5633540537314</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K15" t="n">
-        <v>590.1321125148168</v>
+        <v>502.1623960378352</v>
       </c>
       <c r="L15" t="n">
-        <v>763.8973438461578</v>
+        <v>675.9276273691762</v>
       </c>
       <c r="M15" t="n">
-        <v>974.5127044431306</v>
+        <v>886.5429879661491</v>
       </c>
       <c r="N15" t="n">
-        <v>1196.537928120418</v>
+        <v>1108.568211643437</v>
       </c>
       <c r="O15" t="n">
-        <v>1390.648614581395</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P15" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q15" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R15" t="n">
         <v>2030.43425481942</v>
@@ -5399,10 +5399,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X15" t="n">
-        <v>986.9110569133545</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.7645983010491</v>
+        <v>766.5808931408292</v>
       </c>
       <c r="C16" t="n">
-        <v>460.7645983010491</v>
+        <v>595.4875207025457</v>
       </c>
       <c r="D16" t="n">
-        <v>460.7645983010491</v>
+        <v>435.9928760254558</v>
       </c>
       <c r="E16" t="n">
-        <v>460.7645983010491</v>
+        <v>435.9928760254558</v>
       </c>
       <c r="F16" t="n">
-        <v>296.1334724116404</v>
+        <v>271.361750136047</v>
       </c>
       <c r="G16" t="n">
-        <v>129.7864989679727</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H16" t="n">
         <v>129.7864989679727</v>
@@ -5436,52 +5436,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J16" t="n">
-        <v>52.29045199975549</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K16" t="n">
-        <v>103.434571070691</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L16" t="n">
-        <v>475.1619436066325</v>
+        <v>452.2748404640287</v>
       </c>
       <c r="M16" t="n">
-        <v>903.2226851976783</v>
+        <v>880.3355820550745</v>
       </c>
       <c r="N16" t="n">
-        <v>1319.557877795446</v>
+        <v>1296.670774652842</v>
       </c>
       <c r="O16" t="n">
-        <v>1704.271353674364</v>
+        <v>1681.38425053176</v>
       </c>
       <c r="P16" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q16" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T16" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.697263646284</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V16" t="n">
-        <v>1022.811518585806</v>
+        <v>1067.463295075115</v>
       </c>
       <c r="W16" t="n">
-        <v>743.7418540946808</v>
+        <v>954.2805995348735</v>
       </c>
       <c r="X16" t="n">
-        <v>505.3979919543642</v>
+        <v>954.2805995348735</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.7645983010491</v>
+        <v>954.2805995348735</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.1972056900578</v>
+        <v>578.9100058894437</v>
       </c>
       <c r="C17" t="n">
-        <v>445.0726150033279</v>
+        <v>578.9100058894437</v>
       </c>
       <c r="D17" t="n">
-        <v>40.60868509638841</v>
+        <v>174.4460759825042</v>
       </c>
       <c r="E17" t="n">
-        <v>40.60868509638841</v>
+        <v>174.4460759825042</v>
       </c>
       <c r="F17" t="n">
-        <v>40.60868509638841</v>
+        <v>174.4460759825042</v>
       </c>
       <c r="G17" t="n">
-        <v>40.60868509638841</v>
+        <v>174.4460759825042</v>
       </c>
       <c r="H17" t="n">
         <v>40.60868509638841</v>
@@ -5515,28 +5515,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J17" t="n">
-        <v>164.5779419611397</v>
+        <v>416.0853656505567</v>
       </c>
       <c r="K17" t="n">
-        <v>327.4249451777081</v>
+        <v>578.9323688671251</v>
       </c>
       <c r="L17" t="n">
-        <v>544.3962661373735</v>
+        <v>795.9036898267905</v>
       </c>
       <c r="M17" t="n">
-        <v>798.6447887677311</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N17" t="n">
-        <v>1058.875910696322</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O17" t="n">
-        <v>1299.203999042441</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P17" t="n">
-        <v>1490.345556911144</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q17" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R17" t="n">
         <v>2030.43425481942</v>
@@ -5548,19 +5548,19 @@
         <v>2030.43425481942</v>
       </c>
       <c r="U17" t="n">
-        <v>2030.43425481942</v>
+        <v>1773.534884249812</v>
       </c>
       <c r="V17" t="n">
-        <v>2030.43425481942</v>
+        <v>1773.534884249812</v>
       </c>
       <c r="W17" t="n">
-        <v>1646.673953954589</v>
+        <v>1389.774583384981</v>
       </c>
       <c r="X17" t="n">
-        <v>1246.030556123541</v>
+        <v>989.1311855539332</v>
       </c>
       <c r="Y17" t="n">
-        <v>855.1972056900578</v>
+        <v>989.1311855539332</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C18" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D18" t="n">
         <v>436.3138356099362</v>
@@ -5582,10 +5582,10 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F18" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G18" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H18" t="n">
         <v>40.60868509638841</v>
@@ -5597,25 +5597,25 @@
         <v>349.2317580283647</v>
       </c>
       <c r="K18" t="n">
-        <v>590.1321125148168</v>
+        <v>464.5090923956753</v>
       </c>
       <c r="L18" t="n">
-        <v>763.8973438461578</v>
+        <v>638.2743237270164</v>
       </c>
       <c r="M18" t="n">
-        <v>974.5127044431306</v>
+        <v>848.8896843239893</v>
       </c>
       <c r="N18" t="n">
-        <v>1196.537928120418</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O18" t="n">
-        <v>1390.648614581395</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P18" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q18" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R18" t="n">
         <v>2030.43425481942</v>
@@ -5636,10 +5636,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X18" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.7864989679727</v>
+        <v>768.2967406950881</v>
       </c>
       <c r="C19" t="n">
-        <v>129.7864989679727</v>
+        <v>597.2033682568047</v>
       </c>
       <c r="D19" t="n">
-        <v>129.7864989679727</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="E19" t="n">
-        <v>129.7864989679727</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="F19" t="n">
-        <v>129.7864989679727</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G19" t="n">
-        <v>129.7864989679727</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H19" t="n">
         <v>129.7864989679727</v>
@@ -5673,16 +5673,16 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J19" t="n">
-        <v>52.29045199975549</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K19" t="n">
-        <v>103.434571070691</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L19" t="n">
-        <v>475.1619436066325</v>
+        <v>475.1619436066323</v>
       </c>
       <c r="M19" t="n">
-        <v>903.2226851976783</v>
+        <v>903.2226851976781</v>
       </c>
       <c r="N19" t="n">
         <v>1319.557877795446</v>
@@ -5712,13 +5712,13 @@
         <v>1022.811518585806</v>
       </c>
       <c r="W19" t="n">
-        <v>743.7418540946808</v>
+        <v>1006.640602835405</v>
       </c>
       <c r="X19" t="n">
-        <v>505.3979919543642</v>
+        <v>768.2967406950881</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.6622933431289</v>
+        <v>768.2967406950881</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1282.693582096951</v>
+        <v>1620.213075154931</v>
       </c>
       <c r="C20" t="n">
-        <v>1282.693582096951</v>
+        <v>1210.088484468201</v>
       </c>
       <c r="D20" t="n">
-        <v>1282.693582096951</v>
+        <v>1210.088484468201</v>
       </c>
       <c r="E20" t="n">
-        <v>868.3533666138476</v>
+        <v>795.7482689850976</v>
       </c>
       <c r="F20" t="n">
-        <v>447.3229545675351</v>
+        <v>374.7178569387852</v>
       </c>
       <c r="G20" t="n">
         <v>40.60868509638841</v>
@@ -5752,28 +5752,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J20" t="n">
-        <v>135.5536585935969</v>
+        <v>416.0853656505569</v>
       </c>
       <c r="K20" t="n">
-        <v>298.4006618101653</v>
+        <v>578.9323688671253</v>
       </c>
       <c r="L20" t="n">
-        <v>515.3719827698307</v>
+        <v>795.9036898267907</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.904460837637</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N20" t="n">
-        <v>1437.37900146188</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O20" t="n">
-        <v>1677.707089808</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P20" t="n">
-        <v>1868.848647676702</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q20" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R20" t="n">
         <v>2030.43425481942</v>
@@ -5782,22 +5782,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T20" t="n">
-        <v>1889.430507330078</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U20" t="n">
-        <v>1632.53113676047</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.693582096951</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="W20" t="n">
-        <v>1282.693582096951</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="X20" t="n">
-        <v>1282.693582096951</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="Y20" t="n">
-        <v>1282.693582096951</v>
+        <v>2030.43425481942</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I21" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J21" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K21" t="n">
-        <v>448.4817711975032</v>
+        <v>502.1623960378352</v>
       </c>
       <c r="L21" t="n">
-        <v>622.2470025288443</v>
+        <v>675.9276273691762</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.779480596651</v>
+        <v>886.5429879661491</v>
       </c>
       <c r="N21" t="n">
-        <v>1602.508085124192</v>
+        <v>1108.568211643437</v>
       </c>
       <c r="O21" t="n">
-        <v>1796.618771585169</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P21" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q21" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R21" t="n">
         <v>2030.43425481942</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.1967022117619</v>
+        <v>922.745309277894</v>
       </c>
       <c r="C22" t="n">
-        <v>200.1033297734784</v>
+        <v>922.745309277894</v>
       </c>
       <c r="D22" t="n">
-        <v>40.60868509638841</v>
+        <v>763.2506646008039</v>
       </c>
       <c r="E22" t="n">
-        <v>40.60868509638841</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="F22" t="n">
-        <v>40.60868509638841</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G22" t="n">
-        <v>40.60868509638841</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H22" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I22" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J22" t="n">
-        <v>52.29045199975549</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>103.434571070691</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L22" t="n">
-        <v>494.9723944820012</v>
+        <v>559.9737581133376</v>
       </c>
       <c r="M22" t="n">
-        <v>923.033136073047</v>
+        <v>988.0344997043833</v>
       </c>
       <c r="N22" t="n">
-        <v>1319.557877795446</v>
+        <v>1404.369692302151</v>
       </c>
       <c r="O22" t="n">
-        <v>1704.271353674364</v>
+        <v>1789.083168181069</v>
       </c>
       <c r="P22" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q22" t="n">
         <v>2030.43425481942</v>
@@ -5937,25 +5937,25 @@
         <v>1985.782478330112</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.134815648408</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="T22" t="n">
-        <v>1583.794503977044</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="U22" t="n">
-        <v>1301.045633848484</v>
+        <v>1703.033608201552</v>
       </c>
       <c r="V22" t="n">
-        <v>1301.045633848484</v>
+        <v>1703.033608201552</v>
       </c>
       <c r="W22" t="n">
-        <v>1021.975969357358</v>
+        <v>1573.52457642349</v>
       </c>
       <c r="X22" t="n">
-        <v>783.6321072170416</v>
+        <v>1335.180714283174</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.8964086058063</v>
+        <v>1110.445015671938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1645.16004322369</v>
+        <v>1602.268089521691</v>
       </c>
       <c r="C23" t="n">
-        <v>1235.03545253696</v>
+        <v>1192.143498834962</v>
       </c>
       <c r="D23" t="n">
-        <v>830.5715226300204</v>
+        <v>787.679568928022</v>
       </c>
       <c r="E23" t="n">
-        <v>470.1567699651142</v>
+        <v>787.679568928022</v>
       </c>
       <c r="F23" t="n">
-        <v>49.12635791880179</v>
+        <v>455.8406273899485</v>
       </c>
       <c r="G23" t="n">
         <v>49.12635791880179</v>
@@ -5992,10 +5992,10 @@
         <v>470.8471583037394</v>
       </c>
       <c r="K23" t="n">
-        <v>633.6941615203077</v>
+        <v>633.6941615203078</v>
       </c>
       <c r="L23" t="n">
-        <v>850.6654824799731</v>
+        <v>850.6654824799732</v>
       </c>
       <c r="M23" t="n">
         <v>1104.914005110331</v>
@@ -6007,34 +6007,34 @@
         <v>1605.473215385041</v>
       </c>
       <c r="P23" t="n">
-        <v>2167.73662172123</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q23" t="n">
-        <v>2291.766009023478</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R23" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S23" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T23" t="n">
-        <v>2456.317895940089</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="U23" t="n">
-        <v>2456.317895940089</v>
+        <v>1986.028390386523</v>
       </c>
       <c r="V23" t="n">
-        <v>2456.317895940089</v>
+        <v>1986.028390386523</v>
       </c>
       <c r="W23" t="n">
-        <v>2456.317895940089</v>
+        <v>1602.268089521691</v>
       </c>
       <c r="X23" t="n">
-        <v>2456.317895940089</v>
+        <v>1602.268089521691</v>
       </c>
       <c r="Y23" t="n">
-        <v>2055.381222888179</v>
+        <v>1602.268089521691</v>
       </c>
     </row>
     <row r="24">
@@ -6047,10 +6047,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C24" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D24" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E24" t="n">
         <v>324.3386924246776</v>
@@ -6065,28 +6065,28 @@
         <v>49.12635791880179</v>
       </c>
       <c r="I24" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697381</v>
       </c>
       <c r="J24" t="n">
-        <v>341.722109652606</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K24" t="n">
-        <v>916.6502258640221</v>
+        <v>473.0267652180887</v>
       </c>
       <c r="L24" t="n">
-        <v>1090.415457195363</v>
+        <v>646.7919965494298</v>
       </c>
       <c r="M24" t="n">
-        <v>1301.030817792336</v>
+        <v>857.4073571464027</v>
       </c>
       <c r="N24" t="n">
-        <v>1523.056041469623</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O24" t="n">
-        <v>1717.1667279306</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P24" t="n">
-        <v>1865.127775087418</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q24" t="n">
         <v>1943.818542168665</v>
@@ -6159,7 +6159,7 @@
         <v>1202.832366112511</v>
       </c>
       <c r="N25" t="n">
-        <v>1619.167558710279</v>
+        <v>1619.167558710278</v>
       </c>
       <c r="O25" t="n">
         <v>2003.881034589197</v>
@@ -6168,31 +6168,31 @@
         <v>2316.646372144553</v>
       </c>
       <c r="Q25" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="R25" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S25" t="n">
-        <v>2456.317895940089</v>
+        <v>2285.670233258385</v>
       </c>
       <c r="T25" t="n">
-        <v>2456.317895940089</v>
+        <v>2049.981551384822</v>
       </c>
       <c r="U25" t="n">
-        <v>2306.091031235791</v>
+        <v>2049.981551384822</v>
       </c>
       <c r="V25" t="n">
-        <v>2032.205286175312</v>
+        <v>1776.095806324344</v>
       </c>
       <c r="W25" t="n">
-        <v>1753.135621684187</v>
+        <v>1565.435915290142</v>
       </c>
       <c r="X25" t="n">
-        <v>1514.79175954387</v>
+        <v>1327.092053149826</v>
       </c>
       <c r="Y25" t="n">
-        <v>1290.056060932635</v>
+        <v>1102.356354538591</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1278.055093995574</v>
+        <v>1150.587027278019</v>
       </c>
       <c r="C26" t="n">
-        <v>867.9305033088445</v>
+        <v>1150.587027278019</v>
       </c>
       <c r="D26" t="n">
-        <v>463.4665734019051</v>
+        <v>746.1230973710799</v>
       </c>
       <c r="E26" t="n">
-        <v>49.12635791880179</v>
+        <v>746.1230973710799</v>
       </c>
       <c r="F26" t="n">
-        <v>49.12635791880179</v>
+        <v>746.1230973710799</v>
       </c>
       <c r="G26" t="n">
-        <v>49.12635791880179</v>
+        <v>339.4088278999332</v>
       </c>
       <c r="H26" t="n">
         <v>49.12635791880179</v>
@@ -6229,49 +6229,49 @@
         <v>470.8471583037394</v>
       </c>
       <c r="K26" t="n">
-        <v>633.6941615203077</v>
+        <v>633.6941615203078</v>
       </c>
       <c r="L26" t="n">
-        <v>938.4885248731484</v>
+        <v>850.6654824799732</v>
       </c>
       <c r="M26" t="n">
-        <v>1192.737047503506</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N26" t="n">
-        <v>1452.968169432097</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O26" t="n">
-        <v>1693.296257778216</v>
+        <v>1605.473215385041</v>
       </c>
       <c r="P26" t="n">
-        <v>1884.437815646919</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q26" t="n">
-        <v>2418.761676099619</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R26" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S26" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T26" t="n">
-        <v>2242.92776095613</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="U26" t="n">
-        <v>2242.92776095613</v>
+        <v>1986.028390386523</v>
       </c>
       <c r="V26" t="n">
-        <v>2242.92776095613</v>
+        <v>1986.028390386523</v>
       </c>
       <c r="W26" t="n">
-        <v>2242.92776095613</v>
+        <v>1602.268089521691</v>
       </c>
       <c r="X26" t="n">
-        <v>2089.212946711974</v>
+        <v>1602.268089521691</v>
       </c>
       <c r="Y26" t="n">
-        <v>1688.276273660064</v>
+        <v>1560.808206942509</v>
       </c>
     </row>
     <row r="27">
@@ -6284,10 +6284,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C27" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D27" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E27" t="n">
         <v>324.3386924246776</v>
@@ -6302,31 +6302,31 @@
         <v>49.12635791880179</v>
       </c>
       <c r="I27" t="n">
-        <v>65.15367911697379</v>
+        <v>65.15367911697381</v>
       </c>
       <c r="J27" t="n">
-        <v>114.0810268761448</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K27" t="n">
-        <v>598.6497853372298</v>
+        <v>473.0267652180887</v>
       </c>
       <c r="L27" t="n">
-        <v>772.4150166685708</v>
+        <v>646.7919965494298</v>
       </c>
       <c r="M27" t="n">
-        <v>983.0303772655436</v>
+        <v>857.4073571464027</v>
       </c>
       <c r="N27" t="n">
-        <v>1205.055600942831</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O27" t="n">
-        <v>1399.166287403808</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P27" t="n">
-        <v>1547.127334560625</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q27" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R27" t="n">
         <v>2038.951927641833</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>518.8462280697541</v>
+        <v>801.5950981983143</v>
       </c>
       <c r="C28" t="n">
-        <v>347.7528556314707</v>
+        <v>630.5017257600308</v>
       </c>
       <c r="D28" t="n">
-        <v>188.2582109543807</v>
+        <v>471.0070810829408</v>
       </c>
       <c r="E28" t="n">
-        <v>188.2582109543807</v>
+        <v>310.0962659512603</v>
       </c>
       <c r="F28" t="n">
-        <v>188.2582109543807</v>
+        <v>145.4651400618516</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2582109543807</v>
+        <v>145.4651400618516</v>
       </c>
       <c r="H28" t="n">
-        <v>49.12635791880179</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="I28" t="n">
         <v>49.12635791880179</v>
@@ -6387,28 +6387,28 @@
         <v>125.8094884535053</v>
       </c>
       <c r="K28" t="n">
-        <v>383.2338011101546</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L28" t="n">
-        <v>774.7716245214647</v>
+        <v>774.7716245214651</v>
       </c>
       <c r="M28" t="n">
-        <v>1202.83236611251</v>
+        <v>1202.832366112511</v>
       </c>
       <c r="N28" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O28" t="n">
-        <v>2003.881034589196</v>
+        <v>2003.881034589197</v>
       </c>
       <c r="P28" t="n">
         <v>2316.646372144553</v>
       </c>
       <c r="Q28" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="R28" t="n">
-        <v>2411.666119450781</v>
+        <v>2411.666119450782</v>
       </c>
       <c r="S28" t="n">
         <v>2241.018456769078</v>
@@ -6417,19 +6417,19 @@
         <v>2005.329774895514</v>
       </c>
       <c r="U28" t="n">
-        <v>1722.580904766954</v>
+        <v>2005.329774895514</v>
       </c>
       <c r="V28" t="n">
-        <v>1448.695159706476</v>
+        <v>1731.444029835036</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.62549521535</v>
+        <v>1452.374365343911</v>
       </c>
       <c r="X28" t="n">
-        <v>931.2816330750338</v>
+        <v>1214.030503203594</v>
       </c>
       <c r="Y28" t="n">
-        <v>706.5459344637985</v>
+        <v>989.2948045923587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1284.745290558784</v>
+        <v>1956.709999588031</v>
       </c>
       <c r="C29" t="n">
-        <v>874.6206998720537</v>
+        <v>1546.585408901301</v>
       </c>
       <c r="D29" t="n">
-        <v>470.1567699651142</v>
+        <v>1142.121478994361</v>
       </c>
       <c r="E29" t="n">
-        <v>470.1567699651142</v>
+        <v>727.7812635112582</v>
       </c>
       <c r="F29" t="n">
-        <v>49.12635791880179</v>
+        <v>306.7508514649458</v>
       </c>
       <c r="G29" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652701</v>
       </c>
       <c r="H29" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652701</v>
       </c>
       <c r="I29" t="n">
         <v>49.12635791880179</v>
       </c>
       <c r="J29" t="n">
-        <v>144.0713314160103</v>
+        <v>470.8471583037394</v>
       </c>
       <c r="K29" t="n">
-        <v>306.9183346325786</v>
+        <v>633.6941615203078</v>
       </c>
       <c r="L29" t="n">
-        <v>914.8570138777508</v>
+        <v>850.6654824799732</v>
       </c>
       <c r="M29" t="n">
-        <v>1522.795693122923</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N29" t="n">
-        <v>1863.26264258255</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O29" t="n">
-        <v>2103.590730928669</v>
+        <v>1605.473215385041</v>
       </c>
       <c r="P29" t="n">
-        <v>2294.732288797371</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q29" t="n">
-        <v>2418.761676099619</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R29" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S29" t="n">
-        <v>2456.317895940089</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="T29" t="n">
-        <v>2242.92776095613</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="U29" t="n">
-        <v>2242.92776095613</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="V29" t="n">
-        <v>2242.92776095613</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="W29" t="n">
-        <v>2242.92776095613</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="X29" t="n">
-        <v>2095.903143275183</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="Y29" t="n">
-        <v>1694.966470223273</v>
+        <v>2366.93117925252</v>
       </c>
     </row>
     <row r="30">
@@ -6521,10 +6521,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C30" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D30" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E30" t="n">
         <v>324.3386924246776</v>
@@ -6539,31 +6539,31 @@
         <v>49.12635791880179</v>
       </c>
       <c r="I30" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697381</v>
       </c>
       <c r="J30" t="n">
-        <v>98.0537056779728</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K30" t="n">
-        <v>213.3310400452834</v>
+        <v>473.0267652180887</v>
       </c>
       <c r="L30" t="n">
-        <v>387.0962713766244</v>
+        <v>646.7919965494298</v>
       </c>
       <c r="M30" t="n">
-        <v>995.0349506217965</v>
+        <v>857.4073571464027</v>
       </c>
       <c r="N30" t="n">
-        <v>1602.973629866969</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.084316327946</v>
+        <v>1273.543267284667</v>
       </c>
       <c r="P30" t="n">
-        <v>1945.045363484763</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q30" t="n">
-        <v>2023.736130566011</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R30" t="n">
         <v>2038.951927641833</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1102.356354538591</v>
+        <v>551.1978296901616</v>
       </c>
       <c r="C31" t="n">
-        <v>931.2629821003072</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="D31" t="n">
-        <v>771.7683374232172</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="E31" t="n">
-        <v>610.8575222915367</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F31" t="n">
-        <v>446.226396402128</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G31" t="n">
-        <v>279.8794229584604</v>
+        <v>49.12635791880179</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880179</v>
       </c>
       <c r="I31" t="n">
         <v>49.12635791880179</v>
@@ -6627,7 +6627,7 @@
         <v>383.2338011101549</v>
       </c>
       <c r="L31" t="n">
-        <v>774.771624521465</v>
+        <v>774.7716245214651</v>
       </c>
       <c r="M31" t="n">
         <v>1202.832366112511</v>
@@ -6651,22 +6651,22 @@
         <v>2241.018456769078</v>
       </c>
       <c r="T31" t="n">
-        <v>2005.329774895514</v>
+        <v>2037.681376515922</v>
       </c>
       <c r="U31" t="n">
-        <v>1807.469587564077</v>
+        <v>1754.932506387362</v>
       </c>
       <c r="V31" t="n">
-        <v>1807.469587564077</v>
+        <v>1481.046761326884</v>
       </c>
       <c r="W31" t="n">
-        <v>1528.399923072952</v>
+        <v>1201.977096835758</v>
       </c>
       <c r="X31" t="n">
-        <v>1290.056060932635</v>
+        <v>963.6332346954413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.056060932635</v>
+        <v>738.897536084206</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1699.085506041887</v>
+        <v>1111.944699782212</v>
       </c>
       <c r="C32" t="n">
-        <v>1288.960915355157</v>
+        <v>752.579221234598</v>
       </c>
       <c r="D32" t="n">
-        <v>884.4969854482175</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="E32" t="n">
-        <v>470.1567699651142</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="F32" t="n">
-        <v>49.12635791880179</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="G32" t="n">
-        <v>49.12635791880179</v>
+        <v>348.1152913276584</v>
       </c>
       <c r="H32" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652702</v>
       </c>
       <c r="I32" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160103</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K32" t="n">
-        <v>752.0100106611824</v>
+        <v>1078.785837548912</v>
       </c>
       <c r="L32" t="n">
-        <v>981.1724071245483</v>
+        <v>1348.782998023602</v>
       </c>
       <c r="M32" t="n">
-        <v>1235.420929754906</v>
+        <v>1603.031520653959</v>
       </c>
       <c r="N32" t="n">
-        <v>1495.652051683497</v>
+        <v>1863.26264258255</v>
       </c>
       <c r="O32" t="n">
-        <v>2103.590730928669</v>
+        <v>2103.59073092867</v>
       </c>
       <c r="P32" t="n">
-        <v>2294.732288797371</v>
+        <v>2294.732288797372</v>
       </c>
       <c r="Q32" t="n">
-        <v>2418.761676099619</v>
+        <v>2418.76167609962</v>
       </c>
       <c r="R32" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S32" t="n">
-        <v>2366.93117925252</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.93117925252</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U32" t="n">
-        <v>2366.93117925252</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.93117925252</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="W32" t="n">
-        <v>2109.306685706376</v>
+        <v>1512.881372834122</v>
       </c>
       <c r="X32" t="n">
-        <v>2109.306685706376</v>
+        <v>1512.881372834122</v>
       </c>
       <c r="Y32" t="n">
-        <v>2109.306685706376</v>
+        <v>1111.944699782212</v>
       </c>
     </row>
     <row r="33">
@@ -6758,10 +6758,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C33" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D33" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E33" t="n">
         <v>324.3386924246776</v>
@@ -6773,31 +6773,31 @@
         <v>109.4662927524825</v>
       </c>
       <c r="H33" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I33" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697382</v>
       </c>
       <c r="J33" t="n">
-        <v>98.0537056779728</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3310400452834</v>
+        <v>473.0267652180887</v>
       </c>
       <c r="L33" t="n">
-        <v>387.0962713766244</v>
+        <v>646.7919965494298</v>
       </c>
       <c r="M33" t="n">
-        <v>597.7116319735972</v>
+        <v>857.4073571464027</v>
       </c>
       <c r="N33" t="n">
-        <v>1205.650311218769</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O33" t="n">
-        <v>1717.1667279306</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P33" t="n">
-        <v>1865.127775087418</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q33" t="n">
         <v>1943.818542168665</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1102.356354538591</v>
+        <v>842.085168228723</v>
       </c>
       <c r="C34" t="n">
-        <v>931.2629821003072</v>
+        <v>842.085168228723</v>
       </c>
       <c r="D34" t="n">
-        <v>771.7683374232172</v>
+        <v>682.5905235516329</v>
       </c>
       <c r="E34" t="n">
-        <v>610.8575222915367</v>
+        <v>521.6797084199525</v>
       </c>
       <c r="F34" t="n">
-        <v>446.226396402128</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="G34" t="n">
-        <v>279.8794229584604</v>
+        <v>190.7016090868761</v>
       </c>
       <c r="H34" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I34" t="n">
-        <v>49.12635791880179</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J34" t="n">
         <v>125.8094884535053</v>
       </c>
       <c r="K34" t="n">
-        <v>383.233801110155</v>
+        <v>383.2338011101549</v>
       </c>
       <c r="L34" t="n">
         <v>774.7716245214651</v>
@@ -6870,40 +6870,40 @@
         <v>1202.832366112511</v>
       </c>
       <c r="N34" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O34" t="n">
-        <v>2003.881034589196</v>
+        <v>2003.881034589197</v>
       </c>
       <c r="P34" t="n">
-        <v>2316.646372144553</v>
+        <v>2316.646372144554</v>
       </c>
       <c r="Q34" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="R34" t="n">
-        <v>2456.317895940089</v>
+        <v>2411.666119450782</v>
       </c>
       <c r="S34" t="n">
-        <v>2456.317895940089</v>
+        <v>2241.018456769079</v>
       </c>
       <c r="T34" t="n">
-        <v>2456.317895940089</v>
+        <v>2005.329774895515</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.569025811529</v>
+        <v>1722.580904766955</v>
       </c>
       <c r="V34" t="n">
-        <v>2032.205286175312</v>
+        <v>1722.580904766955</v>
       </c>
       <c r="W34" t="n">
-        <v>1753.135621684187</v>
+        <v>1492.864435374319</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.79175954387</v>
+        <v>1254.520573234003</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.056060932635</v>
+        <v>1029.784874622767</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1530.826358467361</v>
+        <v>1416.107446783551</v>
       </c>
       <c r="C35" t="n">
-        <v>1120.701767780631</v>
+        <v>1416.107446783551</v>
       </c>
       <c r="D35" t="n">
-        <v>716.2378378736917</v>
+        <v>1011.643516876612</v>
       </c>
       <c r="E35" t="n">
-        <v>716.2378378736917</v>
+        <v>1011.643516876612</v>
       </c>
       <c r="F35" t="n">
-        <v>295.2074258273792</v>
+        <v>746.3118879763917</v>
       </c>
       <c r="G35" t="n">
-        <v>40.6086850963884</v>
+        <v>339.5976185052451</v>
       </c>
       <c r="H35" t="n">
-        <v>40.6086850963884</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="I35" t="n">
-        <v>40.6086850963884</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J35" t="n">
-        <v>135.5536585935969</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K35" t="n">
-        <v>298.4006618101653</v>
+        <v>625.1764886978945</v>
       </c>
       <c r="L35" t="n">
-        <v>515.3719827698307</v>
+        <v>842.1478096575598</v>
       </c>
       <c r="M35" t="n">
-        <v>769.6205054001882</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N35" t="n">
-        <v>1029.851627328779</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O35" t="n">
-        <v>1270.179715674898</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P35" t="n">
-        <v>1772.712193742705</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q35" t="n">
-        <v>1992.87803497895</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R35" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S35" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T35" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U35" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V35" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="W35" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.047538131851</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="Y35" t="n">
-        <v>1941.047538131851</v>
+        <v>1416.107446783551</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>100.9486199300691</v>
       </c>
       <c r="H36" t="n">
-        <v>40.6086850963884</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I36" t="n">
-        <v>40.6086850963884</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J36" t="n">
-        <v>89.53603285555943</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K36" t="n">
-        <v>204.81336722287</v>
+        <v>464.5090923956753</v>
       </c>
       <c r="L36" t="n">
-        <v>523.3789524681087</v>
+        <v>638.2743237270164</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.911430535915</v>
+        <v>848.8896843239893</v>
       </c>
       <c r="N36" t="n">
-        <v>1247.936654213202</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O36" t="n">
-        <v>1442.047340674179</v>
+        <v>1302.678898104413</v>
       </c>
       <c r="P36" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.63994526123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2023.270585823233</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.6128726663524</v>
+        <v>1093.838681716177</v>
       </c>
       <c r="C37" t="n">
-        <v>201.5195002280689</v>
+        <v>922.745309277894</v>
       </c>
       <c r="D37" t="n">
-        <v>201.5195002280689</v>
+        <v>763.2506646008039</v>
       </c>
       <c r="E37" t="n">
-        <v>40.6086850963884</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="F37" t="n">
-        <v>40.6086850963884</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G37" t="n">
-        <v>40.6086850963884</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H37" t="n">
-        <v>40.6086850963884</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I37" t="n">
-        <v>40.6086850963884</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J37" t="n">
-        <v>52.29045199975548</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K37" t="n">
-        <v>103.434571070691</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L37" t="n">
-        <v>494.9723944820012</v>
+        <v>766.2539516990518</v>
       </c>
       <c r="M37" t="n">
-        <v>923.033136073047</v>
+        <v>849.3483437758121</v>
       </c>
       <c r="N37" t="n">
-        <v>1339.368328670815</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O37" t="n">
-        <v>1724.081804549733</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P37" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q37" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T37" t="n">
-        <v>1579.446133774844</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U37" t="n">
-        <v>1296.697263646284</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V37" t="n">
-        <v>1022.811518585806</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="W37" t="n">
-        <v>743.7418540946805</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="X37" t="n">
-        <v>597.3485712775878</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="Y37" t="n">
-        <v>372.6128726663524</v>
+        <v>1125.476466592439</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1269.537421173161</v>
+        <v>872.9903148458436</v>
       </c>
       <c r="C38" t="n">
-        <v>859.4128304864312</v>
+        <v>872.9903148458436</v>
       </c>
       <c r="D38" t="n">
-        <v>454.9489005794917</v>
+        <v>468.5263849389041</v>
       </c>
       <c r="E38" t="n">
-        <v>40.60868509638841</v>
+        <v>468.5263849389041</v>
       </c>
       <c r="F38" t="n">
-        <v>40.60868509638841</v>
+        <v>468.5263849389041</v>
       </c>
       <c r="G38" t="n">
-        <v>40.60868509638841</v>
+        <v>339.5976185052451</v>
       </c>
       <c r="H38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="I38" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J38" t="n">
-        <v>462.329485481326</v>
+        <v>416.0853656505569</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1764886978943</v>
+        <v>578.9323688671253</v>
       </c>
       <c r="L38" t="n">
-        <v>842.1478096575597</v>
+        <v>795.9036898267907</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.396332287917</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N38" t="n">
-        <v>1356.627454216508</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O38" t="n">
-        <v>1596.955542562628</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P38" t="n">
-        <v>1788.09710043133</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q38" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R38" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S38" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T38" t="n">
-        <v>1936.657971407259</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U38" t="n">
-        <v>1679.75860083765</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="V38" t="n">
-        <v>1679.75860083765</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="W38" t="n">
-        <v>1679.75860083765</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="X38" t="n">
-        <v>1679.75860083765</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="Y38" t="n">
-        <v>1679.75860083765</v>
+        <v>1283.211494510333</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.2060646415979</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C39" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D39" t="n">
         <v>436.3138356099362</v>
@@ -7241,40 +7241,40 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F39" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G39" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H39" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I39" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J39" t="n">
-        <v>89.53603285555943</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K39" t="n">
-        <v>204.81336722287</v>
+        <v>502.1623960378352</v>
       </c>
       <c r="L39" t="n">
-        <v>378.578598554211</v>
+        <v>675.9276273691762</v>
       </c>
       <c r="M39" t="n">
-        <v>745.4041761453959</v>
+        <v>886.5429879661491</v>
       </c>
       <c r="N39" t="n">
-        <v>1247.936654213202</v>
+        <v>1108.568211643437</v>
       </c>
       <c r="O39" t="n">
-        <v>1442.047340674179</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P39" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q39" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R39" t="n">
         <v>2030.43425481942</v>
@@ -7286,19 +7286,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U39" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W39" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X39" t="n">
-        <v>986.9110569133545</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.5090972771845</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.7719533798362</v>
+        <v>532.9977247313323</v>
       </c>
       <c r="C40" t="n">
-        <v>341.6785809415527</v>
+        <v>361.9043522930488</v>
       </c>
       <c r="D40" t="n">
-        <v>182.1839362644627</v>
+        <v>202.4097076159588</v>
       </c>
       <c r="E40" t="n">
-        <v>182.1839362644627</v>
+        <v>202.4097076159588</v>
       </c>
       <c r="F40" t="n">
-        <v>182.1839362644627</v>
+        <v>202.4097076159588</v>
       </c>
       <c r="G40" t="n">
-        <v>182.1839362644627</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H40" t="n">
         <v>40.60868509638841</v>
@@ -7332,22 +7332,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J40" t="n">
-        <v>52.29045199975549</v>
+        <v>52.2904519997555</v>
       </c>
       <c r="K40" t="n">
-        <v>309.7147646564051</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L40" t="n">
-        <v>701.2525880677152</v>
+        <v>494.9723944820012</v>
       </c>
       <c r="M40" t="n">
-        <v>1129.313329658761</v>
+        <v>923.033136073047</v>
       </c>
       <c r="N40" t="n">
-        <v>1545.648522256529</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O40" t="n">
-        <v>1930.361998135447</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P40" t="n">
         <v>2017.036691229721</v>
@@ -7356,28 +7356,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R40" t="n">
-        <v>1999.255500205596</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S40" t="n">
-        <v>1999.255500205596</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T40" t="n">
-        <v>1999.255500205596</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U40" t="n">
-        <v>1716.506630077036</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V40" t="n">
-        <v>1442.620885016558</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.551220525432</v>
+        <v>959.0412932656932</v>
       </c>
       <c r="X40" t="n">
-        <v>925.2073583851159</v>
+        <v>720.6974311253766</v>
       </c>
       <c r="Y40" t="n">
-        <v>700.4716597738806</v>
+        <v>720.6974311253766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1276.22761773637</v>
+        <v>336.5167792188856</v>
       </c>
       <c r="C41" t="n">
-        <v>866.1030270496403</v>
+        <v>336.5167792188856</v>
       </c>
       <c r="D41" t="n">
-        <v>461.6390971427008</v>
+        <v>336.5167792188856</v>
       </c>
       <c r="E41" t="n">
-        <v>461.6390971427008</v>
+        <v>336.5167792188856</v>
       </c>
       <c r="F41" t="n">
-        <v>40.60868509638841</v>
+        <v>336.5167792188856</v>
       </c>
       <c r="G41" t="n">
         <v>40.60868509638841</v>
@@ -7411,52 +7411,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J41" t="n">
-        <v>462.329485481326</v>
+        <v>135.5536585935969</v>
       </c>
       <c r="K41" t="n">
-        <v>625.1764886978943</v>
+        <v>298.4006618101653</v>
       </c>
       <c r="L41" t="n">
-        <v>842.1478096575597</v>
+        <v>515.3719827698308</v>
       </c>
       <c r="M41" t="n">
-        <v>1096.396332287917</v>
+        <v>769.6205054001884</v>
       </c>
       <c r="N41" t="n">
-        <v>1356.627454216508</v>
+        <v>1029.851627328779</v>
       </c>
       <c r="O41" t="n">
-        <v>1596.955542562628</v>
+        <v>1270.179715674899</v>
       </c>
       <c r="P41" t="n">
-        <v>1868.848647676702</v>
+        <v>1461.321273543601</v>
       </c>
       <c r="Q41" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R41" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S41" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U41" t="n">
-        <v>2030.43425481942</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V41" t="n">
-        <v>2030.43425481942</v>
+        <v>1120.920477914764</v>
       </c>
       <c r="W41" t="n">
-        <v>2030.43425481942</v>
+        <v>737.1601770499331</v>
       </c>
       <c r="X41" t="n">
-        <v>2030.43425481942</v>
+        <v>336.5167792188856</v>
       </c>
       <c r="Y41" t="n">
-        <v>1686.44879740086</v>
+        <v>336.5167792188856</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.2060646415983</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C42" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E42" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F42" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G42" t="n">
         <v>100.9486199300691</v>
@@ -7493,25 +7493,25 @@
         <v>349.2317580283647</v>
       </c>
       <c r="K42" t="n">
-        <v>464.5090923956752</v>
+        <v>502.1623960378352</v>
       </c>
       <c r="L42" t="n">
-        <v>638.2743237270163</v>
+        <v>675.9276273691762</v>
       </c>
       <c r="M42" t="n">
-        <v>848.8896843239891</v>
+        <v>886.5429879661491</v>
       </c>
       <c r="N42" t="n">
-        <v>1070.914908001276</v>
+        <v>1108.568211643437</v>
       </c>
       <c r="O42" t="n">
-        <v>1265.025594462253</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P42" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q42" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R42" t="n">
         <v>2030.43425481942</v>
@@ -7523,7 +7523,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V42" t="n">
         <v>1376.470207038133</v>
@@ -7532,10 +7532,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7386432328511</v>
+        <v>325.3140698324372</v>
       </c>
       <c r="C43" t="n">
-        <v>525.6452707945676</v>
+        <v>325.3140698324372</v>
       </c>
       <c r="D43" t="n">
-        <v>366.1506261174777</v>
+        <v>325.3140698324372</v>
       </c>
       <c r="E43" t="n">
-        <v>205.2398109857971</v>
+        <v>164.4032547007567</v>
       </c>
       <c r="F43" t="n">
-        <v>40.60868509638841</v>
+        <v>164.4032547007567</v>
       </c>
       <c r="G43" t="n">
-        <v>40.60868509638841</v>
+        <v>164.4032547007567</v>
       </c>
       <c r="H43" t="n">
         <v>40.60868509638841</v>
@@ -7569,52 +7569,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J43" t="n">
-        <v>52.29045199975549</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>309.7147646564051</v>
+        <v>218.2476434626036</v>
       </c>
       <c r="L43" t="n">
-        <v>701.2525880677152</v>
+        <v>609.7854668739137</v>
       </c>
       <c r="M43" t="n">
-        <v>1129.313329658761</v>
+        <v>1037.84620846496</v>
       </c>
       <c r="N43" t="n">
-        <v>1545.648522256529</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O43" t="n">
-        <v>1930.361998135447</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P43" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q43" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S43" t="n">
-        <v>1900.473319930051</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T43" t="n">
-        <v>1900.473319930051</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U43" t="n">
-        <v>1900.473319930051</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V43" t="n">
-        <v>1626.587574869573</v>
+        <v>1067.463295075115</v>
       </c>
       <c r="W43" t="n">
-        <v>1347.517910378447</v>
+        <v>788.3936305839891</v>
       </c>
       <c r="X43" t="n">
-        <v>1109.174048238131</v>
+        <v>550.0497684436725</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.4383496268955</v>
+        <v>325.3140698324372</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1620.213075154931</v>
+        <v>459.4397392108435</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.088484468201</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="D44" t="n">
-        <v>877.0598300415728</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="E44" t="n">
-        <v>877.0598300415728</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="F44" t="n">
-        <v>456.0294179952604</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="G44" t="n">
-        <v>49.31514852411363</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="H44" t="n">
-        <v>49.31514852411363</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="I44" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J44" t="n">
-        <v>462.329485481326</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1764886978943</v>
+        <v>625.1764886978945</v>
       </c>
       <c r="L44" t="n">
-        <v>842.1478096575597</v>
+        <v>842.1478096575598</v>
       </c>
       <c r="M44" t="n">
-        <v>1096.396332287917</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N44" t="n">
-        <v>1356.627454216508</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O44" t="n">
-        <v>1596.955542562628</v>
+        <v>1677.707089808</v>
       </c>
       <c r="P44" t="n">
-        <v>1788.09710043133</v>
+        <v>1868.848647676702</v>
       </c>
       <c r="Q44" t="n">
         <v>1992.87803497895</v>
@@ -7675,25 +7675,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T44" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U44" t="n">
-        <v>2030.43425481942</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V44" t="n">
-        <v>2030.43425481942</v>
+        <v>1120.920477914764</v>
       </c>
       <c r="W44" t="n">
-        <v>2030.43425481942</v>
+        <v>737.1601770499328</v>
       </c>
       <c r="X44" t="n">
-        <v>2030.43425481942</v>
+        <v>459.4397392108435</v>
       </c>
       <c r="Y44" t="n">
-        <v>2030.43425481942</v>
+        <v>459.4397392108435</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.2060646415983</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C45" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D45" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E45" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F45" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G45" t="n">
         <v>100.9486199300693</v>
@@ -7730,22 +7730,22 @@
         <v>349.2317580283647</v>
       </c>
       <c r="K45" t="n">
-        <v>851.7642360961711</v>
+        <v>464.5090923956753</v>
       </c>
       <c r="L45" t="n">
-        <v>1025.529467427512</v>
+        <v>638.2743237270164</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.144828024485</v>
+        <v>848.8896843239893</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.170051701772</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O45" t="n">
-        <v>1652.280738162749</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P45" t="n">
-        <v>1856.610102265005</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q45" t="n">
         <v>1935.300869346252</v>
@@ -7760,7 +7760,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U45" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V45" t="n">
         <v>1376.470207038133</v>
@@ -7769,10 +7769,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X45" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>621.2853312150266</v>
+        <v>838.3138944009254</v>
       </c>
       <c r="C46" t="n">
-        <v>450.1919587767432</v>
+        <v>667.2205219626419</v>
       </c>
       <c r="D46" t="n">
-        <v>290.6973140996532</v>
+        <v>507.7258772855519</v>
       </c>
       <c r="E46" t="n">
-        <v>129.7864989679727</v>
+        <v>346.8150621538714</v>
       </c>
       <c r="F46" t="n">
-        <v>129.7864989679727</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="G46" t="n">
-        <v>129.7864989679727</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="H46" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I46" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J46" t="n">
-        <v>52.29045199975549</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K46" t="n">
-        <v>103.434571070691</v>
+        <v>218.2476434626032</v>
       </c>
       <c r="L46" t="n">
-        <v>494.9723944820012</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M46" t="n">
-        <v>923.033136073047</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.368328670815</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O46" t="n">
-        <v>1577.997393468527</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P46" t="n">
         <v>1890.762731023884</v>
@@ -7836,22 +7836,22 @@
         <v>1815.134815648408</v>
       </c>
       <c r="T46" t="n">
-        <v>1815.134815648408</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U46" t="n">
-        <v>1815.134815648408</v>
+        <v>1543.427127426412</v>
       </c>
       <c r="V46" t="n">
-        <v>1551.134262851748</v>
+        <v>1543.427127426412</v>
       </c>
       <c r="W46" t="n">
-        <v>1272.064598360623</v>
+        <v>1264.357462935286</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.720736220306</v>
+        <v>1026.01360079497</v>
       </c>
       <c r="Y46" t="n">
-        <v>808.985037609071</v>
+        <v>1026.01360079497</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>283.3653606635958</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>97.10752922625954</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>314.5362830293981</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.03364004258589</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>38.03364004258526</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>262.2572552157723</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>243.5222551492418</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>68.52717099178076</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>343.1166412638769</v>
+        <v>81.56721943976927</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>373.0216404987623</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>297.1400609693479</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
@@ -9102,10 +9102,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>159.1016428382674</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.31745794701297</v>
+        <v>283.3653606635958</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>382.326354308645</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>126.8919395142844</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>297.1400609693479</v>
+        <v>23.11828600262986</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>283.365360663596</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>250.7918741792413</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>160.8519380764165</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.576245102550899</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>294.8657752230643</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>258.2862432830843</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>315.3776268406231</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>50.31485733391518</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>374.8705540075625</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>374.8705540075623</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550899</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>464.29371903445</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>88.71014383149026</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>374.8705540075623</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>373.021640498762</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>38.03364004258501</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047614</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>394.9165235207139</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>357.2627844594086</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>81.04629043538989</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>374.8705540075623</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.576245102550899</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>401.3366855032316</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>389.8115712806916</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>38.03364004258506</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>8.133462706703053</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>449.5875515440442</v>
+        <v>449.5875515440443</v>
       </c>
       <c r="L32" t="n">
-        <v>12.31421768050561</v>
+        <v>53.56145405558038</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>371.3238291909624</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.576245102550899</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>389.8115712806916</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>320.6118487382364</v>
+        <v>38.03364004258501</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>314.5362830293981</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>97.10752922625949</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.56721943976945</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576245102550899</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>146.2629837514117</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>294.8657752230642</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.03364004258526</v>
       </c>
       <c r="P36" t="n">
-        <v>358.1529605161506</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>262.2572552157724</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>243.5222551492418</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>283.365360663596</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.56721943976976</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.576245102550899</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>157.7880979739516</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>283.3406610005243</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.1529605161507</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>35.15842324448024</v>
+        <v>243.522255149242</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>81.56721943976979</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>283.3653606635959</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>126.8919395142844</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>50.31485733391528</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>35.15842324448024</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>81.5672194397693</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.56721943976976</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>391.1668118186827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>56.9376938842808</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>50.31485733391483</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11469,10 +11469,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>170.6973215530656</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>362.1784134672561</v>
+        <v>309.0917748572347</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.49284952069371</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T11" t="n">
         <v>211.2562336341194</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>117.5520758797316</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6835037092309</v>
+        <v>127.9506274826839</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>152.0634689521097</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>251.334956102928</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H14" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I14" t="n">
-        <v>8.619398793447971</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.2280992613758</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.301281908341</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H17" t="n">
-        <v>287.3796452813201</v>
+        <v>154.8806283040655</v>
       </c>
       <c r="I17" t="n">
-        <v>8.619398793447971</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.00228939224206</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.45567289869936</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>260.2697612533166</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>71.87904665246242</v>
       </c>
       <c r="H20" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I20" t="n">
-        <v>8.619398793447971</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>88.49284952069371</v>
       </c>
       <c r="T20" t="n">
-        <v>71.66252361967108</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T22" t="n">
-        <v>4.304886500177389</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>148.0650263859329</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>53.38620819001517</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>88.29955580315652</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I23" t="n">
-        <v>8.619398793447971</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>88.49284952069371</v>
       </c>
       <c r="T23" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441498</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S25" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>131.1967853700187</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>67.72567572235482</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.619398793447971</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>244.459297751022</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>355.8820225680001</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
-        <v>2.418964151170456</v>
+        <v>133.0701400676427</v>
       </c>
       <c r="I28" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6471267764352</v>
+        <v>156.2182769592007</v>
       </c>
       <c r="H29" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I29" t="n">
-        <v>8.619398793447971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U29" t="n">
         <v>254.3303768639121</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>251.0825923485991</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.28603573286844</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>32.0280856042034</v>
       </c>
       <c r="U31" t="n">
-        <v>84.03979596915192</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>50.25152101772431</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>402.6471267764352</v>
       </c>
       <c r="H32" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>8.619398793447971</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>124.8744492455005</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.28603573286844</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441498</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>131.1967853700187</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>48.85966314750507</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>154.1417953146312</v>
       </c>
       <c r="G35" t="n">
-        <v>150.5943734527544</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.619398793447971</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T35" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3303768639121</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>154.5013023026046</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>91.0310735299916</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.6471267764352</v>
+        <v>275.0076480071128</v>
       </c>
       <c r="H38" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.619398793447971</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>118.4177130560795</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6835037092309</v>
+        <v>4.50049141485627</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I40" t="n">
         <v>88.28603573286844</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.33829165672931</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S40" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.6471267764352</v>
+        <v>109.6981135951631</v>
       </c>
       <c r="H41" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447971</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>56.38170347701583</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1594986563936</v>
+        <v>17.60287474806894</v>
       </c>
       <c r="I43" t="n">
         <v>88.28603573286844</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S43" t="n">
-        <v>84.48511923882663</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>70.72092272550822</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H44" t="n">
         <v>287.3796452813201</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>121.6937303920386</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.28603573286844</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9213814272745</v>
+        <v>244.2625651423262</v>
       </c>
       <c r="V46" t="n">
-        <v>9.786340341180278</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448057.2036654363</v>
+        <v>448057.2036654361</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448057.2036654362</v>
+        <v>448057.2036654364</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>507220.6504834482</v>
+        <v>507220.6504834484</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448057.2036654362</v>
+        <v>448057.2036654361</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448057.2036654362</v>
+        <v>448057.2036654361</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469807.0309616042</v>
+      </c>
+      <c r="C2" t="n">
         <v>469807.030961604</v>
-      </c>
-      <c r="C2" t="n">
-        <v>469807.0309616039</v>
       </c>
       <c r="D2" t="n">
         <v>469807.030961604</v>
@@ -26325,13 +26325,13 @@
         <v>291094.3137192732</v>
       </c>
       <c r="F2" t="n">
+        <v>291094.3137192732</v>
+      </c>
+      <c r="G2" t="n">
         <v>291094.3137192733</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>291094.3137192731</v>
-      </c>
-      <c r="H2" t="n">
-        <v>291094.3137192733</v>
       </c>
       <c r="I2" t="n">
         <v>322129.1880193664</v>
@@ -26340,7 +26340,7 @@
         <v>322129.1880193665</v>
       </c>
       <c r="K2" t="n">
-        <v>322129.1880193664</v>
+        <v>322129.1880193665</v>
       </c>
       <c r="L2" t="n">
         <v>322129.1880193664</v>
@@ -26349,13 +26349,13 @@
         <v>291094.3137192733</v>
       </c>
       <c r="N2" t="n">
+        <v>291094.3137192734</v>
+      </c>
+      <c r="O2" t="n">
         <v>291094.3137192733</v>
       </c>
-      <c r="O2" t="n">
-        <v>291094.3137192732</v>
-      </c>
       <c r="P2" t="n">
-        <v>291094.3137192734</v>
+        <v>291094.3137192733</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28312.85093261237</v>
+        <v>28312.85093261239</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99965.10778404598</v>
+        <v>99965.10778404589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>36950.24401123948</v>
       </c>
       <c r="G4" t="n">
-        <v>36950.24401123951</v>
+        <v>36950.24401123948</v>
       </c>
       <c r="H4" t="n">
-        <v>36950.2440112395</v>
+        <v>36950.24401123949</v>
       </c>
       <c r="I4" t="n">
-        <v>52302.31338696506</v>
+        <v>52302.31338696505</v>
       </c>
       <c r="J4" t="n">
-        <v>52302.31338696506</v>
+        <v>52302.31338696505</v>
       </c>
       <c r="K4" t="n">
         <v>52302.31338696505</v>
@@ -26450,16 +26450,16 @@
         <v>52302.31338696506</v>
       </c>
       <c r="M4" t="n">
+        <v>36950.24401123948</v>
+      </c>
+      <c r="N4" t="n">
         <v>36950.24401123949</v>
       </c>
-      <c r="N4" t="n">
-        <v>36950.2440112395</v>
-      </c>
       <c r="O4" t="n">
-        <v>36950.2440112395</v>
+        <v>36950.24401123949</v>
       </c>
       <c r="P4" t="n">
-        <v>36950.2440112395</v>
+        <v>36950.24401123947</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="F5" t="n">
         <v>41674.88356206351</v>
@@ -26487,28 +26487,28 @@
         <v>41674.88356206351</v>
       </c>
       <c r="H5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="I5" t="n">
-        <v>48148.31490709768</v>
+        <v>48148.31490709769</v>
       </c>
       <c r="J5" t="n">
-        <v>48148.31490709768</v>
+        <v>48148.31490709769</v>
       </c>
       <c r="K5" t="n">
-        <v>48148.31490709768</v>
+        <v>48148.31490709769</v>
       </c>
       <c r="L5" t="n">
-        <v>48148.31490709768</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="M5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="N5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="O5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="P5" t="n">
         <v>41674.88356206351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87732.24059378909</v>
+        <v>87723.44090815984</v>
       </c>
       <c r="C6" t="n">
-        <v>87732.24059378891</v>
+        <v>87723.44090815967</v>
       </c>
       <c r="D6" t="n">
-        <v>87732.24059378909</v>
+        <v>87723.44090815961</v>
       </c>
       <c r="E6" t="n">
-        <v>-337560.394308874</v>
+        <v>-338185.4447436149</v>
       </c>
       <c r="F6" t="n">
-        <v>212469.1861459703</v>
+        <v>211844.1357112293</v>
       </c>
       <c r="G6" t="n">
-        <v>212469.1861459701</v>
+        <v>211844.1357112294</v>
       </c>
       <c r="H6" t="n">
-        <v>212469.1861459703</v>
+        <v>211844.1357112293</v>
       </c>
       <c r="I6" t="n">
-        <v>193365.7087926913</v>
+        <v>192847.6751658818</v>
       </c>
       <c r="J6" t="n">
-        <v>221678.5597253038</v>
+        <v>221160.5260984942</v>
       </c>
       <c r="K6" t="n">
-        <v>221678.5597253037</v>
+        <v>221160.5260984943</v>
       </c>
       <c r="L6" t="n">
-        <v>221678.5597253037</v>
+        <v>221160.5260984941</v>
       </c>
       <c r="M6" t="n">
-        <v>112504.0783619243</v>
+        <v>111879.0279271836</v>
       </c>
       <c r="N6" t="n">
-        <v>212469.1861459702</v>
+        <v>211844.1357112295</v>
       </c>
       <c r="O6" t="n">
-        <v>212469.1861459702</v>
+        <v>211844.1357112294</v>
       </c>
       <c r="P6" t="n">
-        <v>212469.1861459704</v>
+        <v>211844.1357112294</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="F4" t="n">
         <v>507.608563704855</v>
@@ -26807,28 +26807,28 @@
         <v>507.608563704855</v>
       </c>
       <c r="H4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="I4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="J4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="K4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="L4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="M4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="O4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="P4" t="n">
         <v>507.608563704855</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4709102801673</v>
+        <v>106.4709102801674</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>401.1376534246881</v>
+        <v>401.1376534246878</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J11" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K11" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M11" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P11" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q11" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R11" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T11" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U11" t="n">
         <v>0.1595099591728672</v>
@@ -31837,13 +31837,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I12" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J12" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K12" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L12" t="n">
         <v>231.6349594990724</v>
@@ -31852,28 +31852,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O12" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P12" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T12" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I13" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J13" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K13" t="n">
         <v>103.9110958933452</v>
@@ -31937,22 +31937,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P13" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S13" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I14" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J14" t="n">
         <v>169.2276049668519</v>
@@ -32004,34 +32004,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M14" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P14" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q14" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R14" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T14" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J15" t="n">
         <v>100.7908021931021</v>
@@ -32083,7 +32083,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L15" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M15" t="n">
         <v>270.3070722202082</v>
@@ -32095,22 +32095,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P15" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R15" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T15" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I16" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J16" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K16" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L16" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M16" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N16" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O16" t="n">
         <v>126.4170359115596</v>
@@ -32177,19 +32177,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S16" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H17" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I17" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J17" t="n">
         <v>169.2276049668519</v>
@@ -32241,34 +32241,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L17" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M17" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P17" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q17" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R17" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T17" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I18" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J18" t="n">
         <v>100.7908021931021</v>
@@ -32320,7 +32320,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L18" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M18" t="n">
         <v>270.3070722202082</v>
@@ -32332,22 +32332,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P18" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R18" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T18" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I19" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J19" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K19" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L19" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M19" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N19" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O19" t="n">
         <v>126.4170359115596</v>
@@ -32414,19 +32414,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S19" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H20" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I20" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J20" t="n">
         <v>169.2276049668519</v>
@@ -32478,34 +32478,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L20" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M20" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P20" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q20" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R20" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S20" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T20" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I21" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J21" t="n">
         <v>100.7908021931021</v>
@@ -32557,7 +32557,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L21" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M21" t="n">
         <v>270.3070722202082</v>
@@ -32569,22 +32569,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P21" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S21" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T21" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I22" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J22" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K22" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L22" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M22" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N22" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O22" t="n">
         <v>126.4170359115596</v>
@@ -32651,19 +32651,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S22" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T22" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H23" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I23" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J23" t="n">
         <v>169.2276049668519</v>
@@ -32715,34 +32715,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L23" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M23" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P23" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q23" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R23" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T23" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I24" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J24" t="n">
         <v>100.7908021931021</v>
@@ -32794,7 +32794,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L24" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M24" t="n">
         <v>270.3070722202082</v>
@@ -32806,22 +32806,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P24" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S24" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T24" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I25" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J25" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K25" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L25" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M25" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N25" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O25" t="n">
         <v>126.4170359115596</v>
@@ -32888,19 +32888,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S25" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H26" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I26" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J26" t="n">
         <v>169.2276049668519</v>
@@ -32952,34 +32952,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L26" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M26" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N26" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P26" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q26" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R26" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T26" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J27" t="n">
         <v>100.7908021931021</v>
@@ -33031,7 +33031,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M27" t="n">
         <v>270.3070722202082</v>
@@ -33043,22 +33043,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P27" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S27" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T27" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I28" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J28" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K28" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L28" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M28" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N28" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O28" t="n">
         <v>126.4170359115596</v>
@@ -33125,19 +33125,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S28" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H29" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I29" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J29" t="n">
         <v>169.2276049668519</v>
@@ -33189,34 +33189,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L29" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M29" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N29" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P29" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q29" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R29" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T29" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I30" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J30" t="n">
         <v>100.7908021931021</v>
@@ -33268,7 +33268,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L30" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M30" t="n">
         <v>270.3070722202082</v>
@@ -33280,22 +33280,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P30" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S30" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T30" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I31" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J31" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K31" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L31" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M31" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N31" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O31" t="n">
         <v>126.4170359115596</v>
@@ -33362,19 +33362,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S31" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H32" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I32" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J32" t="n">
         <v>169.2276049668519</v>
@@ -33426,34 +33426,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L32" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M32" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N32" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P32" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q32" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R32" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T32" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I33" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J33" t="n">
         <v>100.7908021931021</v>
@@ -33505,7 +33505,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L33" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M33" t="n">
         <v>270.3070722202082</v>
@@ -33517,22 +33517,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P33" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S33" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T33" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I34" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J34" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K34" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L34" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M34" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N34" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O34" t="n">
         <v>126.4170359115596</v>
@@ -33599,19 +33599,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S34" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H35" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I35" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J35" t="n">
         <v>169.2276049668519</v>
@@ -33663,34 +33663,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L35" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M35" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N35" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P35" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q35" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R35" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T35" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I36" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J36" t="n">
         <v>100.7908021931021</v>
@@ -33742,7 +33742,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L36" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M36" t="n">
         <v>270.3070722202082</v>
@@ -33754,22 +33754,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P36" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S36" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T36" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I37" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J37" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K37" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L37" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N37" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O37" t="n">
         <v>126.4170359115596</v>
@@ -33836,19 +33836,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S37" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H38" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I38" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J38" t="n">
         <v>169.2276049668519</v>
@@ -33900,34 +33900,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L38" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M38" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N38" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P38" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q38" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R38" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T38" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I39" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J39" t="n">
         <v>100.7908021931021</v>
@@ -33979,7 +33979,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L39" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M39" t="n">
         <v>270.3070722202082</v>
@@ -33991,22 +33991,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P39" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S39" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T39" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I40" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J40" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K40" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L40" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M40" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N40" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O40" t="n">
         <v>126.4170359115596</v>
@@ -34073,19 +34073,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S40" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H41" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I41" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J41" t="n">
         <v>169.2276049668519</v>
@@ -34137,34 +34137,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M41" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N41" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P41" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q41" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R41" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T41" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I42" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J42" t="n">
         <v>100.7908021931021</v>
@@ -34216,7 +34216,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L42" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M42" t="n">
         <v>270.3070722202082</v>
@@ -34228,22 +34228,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P42" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S42" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T42" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H43" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I43" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J43" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K43" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L43" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M43" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N43" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O43" t="n">
         <v>126.4170359115596</v>
@@ -34310,19 +34310,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S43" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,10 +34362,10 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H44" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I44" t="n">
-        <v>76.8688462626496</v>
+        <v>76.86884626264961</v>
       </c>
       <c r="J44" t="n">
         <v>169.2276049668519</v>
@@ -34374,34 +34374,34 @@
         <v>253.6283121141953</v>
       </c>
       <c r="L44" t="n">
-        <v>314.6483485271532</v>
+        <v>314.6483485271533</v>
       </c>
       <c r="M44" t="n">
-        <v>350.1069139826592</v>
+        <v>350.1069139826593</v>
       </c>
       <c r="N44" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P44" t="n">
-        <v>286.721643956341</v>
+        <v>286.7216439563411</v>
       </c>
       <c r="Q44" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R44" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43541493314643</v>
+        <v>45.43541493314644</v>
       </c>
       <c r="T44" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1595099591728671</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I45" t="n">
-        <v>36.7303187974491</v>
+        <v>36.73031879744911</v>
       </c>
       <c r="J45" t="n">
         <v>100.7908021931021</v>
@@ -34453,7 +34453,7 @@
         <v>172.2675346707877</v>
       </c>
       <c r="L45" t="n">
-        <v>231.6349594990723</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M45" t="n">
         <v>270.3070722202082</v>
@@ -34465,22 +34465,22 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P45" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23622839448275</v>
+        <v>66.23622839448277</v>
       </c>
       <c r="S45" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T45" t="n">
-        <v>4.300020761128115</v>
+        <v>4.300020761128116</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07018532254289639</v>
+        <v>0.0701853225428964</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943834544810617</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H46" t="n">
-        <v>7.951881986204355</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I46" t="n">
-        <v>26.89654970384866</v>
+        <v>26.89654970384867</v>
       </c>
       <c r="J46" t="n">
-        <v>63.23291023181106</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K46" t="n">
-        <v>103.9110958933451</v>
+        <v>103.9110958933452</v>
       </c>
       <c r="L46" t="n">
         <v>132.9704274053026</v>
       </c>
       <c r="M46" t="n">
-        <v>140.1986718692449</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N46" t="n">
-        <v>136.8650608116338</v>
+        <v>136.8650608116339</v>
       </c>
       <c r="O46" t="n">
         <v>126.4170359115596</v>
@@ -34547,19 +34547,19 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.89241817477327</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21473241693936</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S46" t="n">
         <v>15.58666438400177</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821456578237262</v>
+        <v>3.821456578237263</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878455206260342</v>
+        <v>0.04878455206260343</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.90401363354394</v>
+        <v>379.2693742971398</v>
       </c>
       <c r="K11" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L11" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N11" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O11" t="n">
-        <v>339.8631740203195</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P11" t="n">
-        <v>507.608563704855</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
-        <v>37.93557559643433</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.18921333148688</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J12" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>116.4417518861723</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L12" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M12" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N12" t="n">
-        <v>262.3015427469167</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0714004656333</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4556031887044</v>
+        <v>187.4892432312897</v>
       </c>
       <c r="Q12" t="n">
         <v>489.5564889747692</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.79976454885565</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K13" t="n">
-        <v>51.66072633427834</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L13" t="n">
         <v>395.4927509205153</v>
       </c>
       <c r="M13" t="n">
-        <v>432.3845874657028</v>
+        <v>346.1909845862373</v>
       </c>
       <c r="N13" t="n">
-        <v>420.5405985836038</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O13" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P13" t="n">
-        <v>295.9140269494828</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.53289251484772</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.4311846253247</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K14" t="n">
-        <v>507.608563704855</v>
+        <v>246.0591418807475</v>
       </c>
       <c r="L14" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M14" t="n">
         <v>256.8166895256138</v>
@@ -35661,16 +35661,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O14" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P14" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R14" t="n">
-        <v>37.93557559643432</v>
+        <v>37.93557559643435</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>16.18921333148688</v>
       </c>
       <c r="J15" t="n">
-        <v>49.42156339310204</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K15" t="n">
-        <v>489.4633923849347</v>
+        <v>154.4753919287581</v>
       </c>
       <c r="L15" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M15" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N15" t="n">
         <v>224.2679027043308</v>
@@ -35746,10 +35746,10 @@
         <v>149.4556031887044</v>
       </c>
       <c r="Q15" t="n">
-        <v>489.5564889747691</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R15" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.79976454885564</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K16" t="n">
-        <v>51.66072633427832</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L16" t="n">
-        <v>375.482194480749</v>
+        <v>78.3421335114011</v>
       </c>
       <c r="M16" t="n">
         <v>432.3845874657028</v>
@@ -35822,10 +35822,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9245833892492</v>
+        <v>211.4934146385084</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.5328925148477</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>125.2214715805569</v>
+        <v>379.2693742971397</v>
       </c>
       <c r="K17" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L17" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M17" t="n">
         <v>256.8166895256138</v>
@@ -35898,16 +35898,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O17" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P17" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q17" t="n">
-        <v>507.608563704855</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R17" t="n">
-        <v>37.93557559643432</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K18" t="n">
-        <v>243.3336914004567</v>
+        <v>116.4417518861723</v>
       </c>
       <c r="L18" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M18" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N18" t="n">
         <v>224.2679027043308</v>
@@ -35980,13 +35980,13 @@
         <v>196.0714004656333</v>
       </c>
       <c r="P18" t="n">
-        <v>149.4556031887044</v>
+        <v>187.4892432312902</v>
       </c>
       <c r="Q18" t="n">
-        <v>489.5564889747691</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R18" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.79976454885564</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K19" t="n">
-        <v>51.66072633427832</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L19" t="n">
-        <v>375.482194480749</v>
+        <v>101.460419514031</v>
       </c>
       <c r="M19" t="n">
         <v>432.3845874657028</v>
@@ -36059,10 +36059,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.5328925148477</v>
+        <v>13.53289251484773</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.90401363354391</v>
+        <v>379.2693742971399</v>
       </c>
       <c r="K20" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L20" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M20" t="n">
-        <v>507.608563704855</v>
+        <v>256.8166895256138</v>
       </c>
       <c r="N20" t="n">
-        <v>423.7116571962053</v>
+        <v>262.8597191197888</v>
       </c>
       <c r="O20" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P20" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R20" t="n">
-        <v>37.93557559643432</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J21" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K21" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287581</v>
       </c>
       <c r="L21" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M21" t="n">
-        <v>507.608563704855</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N21" t="n">
-        <v>482.5541459874151</v>
+        <v>224.2679027043308</v>
       </c>
       <c r="O21" t="n">
         <v>196.0714004656333</v>
@@ -36220,10 +36220,10 @@
         <v>149.4556031887044</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R21" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.79976454885564</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K22" t="n">
-        <v>51.66072633427832</v>
+        <v>51.66072633427835</v>
       </c>
       <c r="L22" t="n">
         <v>395.4927509205153</v>
@@ -36290,16 +36290,16 @@
         <v>432.3845874657028</v>
       </c>
       <c r="N22" t="n">
-        <v>400.5300421438375</v>
+        <v>420.5405985836038</v>
       </c>
       <c r="O22" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9245833892492</v>
+        <v>102.7066291341562</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.5328925148477</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>425.9806064494319</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K23" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L23" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M23" t="n">
         <v>256.8166895256138</v>
@@ -36372,16 +36372,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O23" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P23" t="n">
-        <v>567.9428346830194</v>
+        <v>193.0722806754569</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.2822093962101</v>
+        <v>500.1527634037725</v>
       </c>
       <c r="R23" t="n">
-        <v>166.214027188496</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J24" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K24" t="n">
-        <v>580.7354709206223</v>
+        <v>116.4417518861723</v>
       </c>
       <c r="L24" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M24" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N24" t="n">
-        <v>224.2679027043308</v>
+        <v>262.3015427469159</v>
       </c>
       <c r="O24" t="n">
         <v>196.0714004656333</v>
@@ -36457,10 +36457,10 @@
         <v>149.4556031887044</v>
       </c>
       <c r="Q24" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>96.09432876077557</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45770761081158</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K25" t="n">
         <v>260.0245582390401</v>
@@ -36533,10 +36533,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q25" t="n">
-        <v>141.0823472682185</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>425.9806064494319</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K26" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L26" t="n">
-        <v>307.8730942957987</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M26" t="n">
         <v>256.8166895256138</v>
@@ -36609,16 +36609,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O26" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P26" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q26" t="n">
-        <v>539.721071164344</v>
+        <v>500.1527634037725</v>
       </c>
       <c r="R26" t="n">
-        <v>37.93557559643432</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>16.18921333148688</v>
       </c>
       <c r="J27" t="n">
-        <v>49.42156339310204</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K27" t="n">
-        <v>489.4633923849343</v>
+        <v>116.4417518861723</v>
       </c>
       <c r="L27" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M27" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N27" t="n">
         <v>224.2679027043308</v>
       </c>
       <c r="O27" t="n">
-        <v>196.0714004656333</v>
+        <v>234.1050405082183</v>
       </c>
       <c r="P27" t="n">
         <v>149.4556031887044</v>
       </c>
       <c r="Q27" t="n">
-        <v>489.5564889747691</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R27" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45770761081158</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0245582390397</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L28" t="n">
         <v>395.4927509205153</v>
@@ -36770,10 +36770,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q28" t="n">
-        <v>141.0823472682185</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>95.90401363354391</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K29" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L29" t="n">
-        <v>614.0794739850223</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M29" t="n">
-        <v>614.0794739850223</v>
+        <v>256.8166895256138</v>
       </c>
       <c r="N29" t="n">
-        <v>343.9060095551787</v>
+        <v>262.8597191197888</v>
       </c>
       <c r="O29" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P29" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.2822093962101</v>
+        <v>500.1527634037725</v>
       </c>
       <c r="R29" t="n">
-        <v>37.93557559643432</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J30" t="n">
-        <v>49.42156339310204</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K30" t="n">
         <v>116.4417518861723</v>
@@ -36919,22 +36919,22 @@
         <v>175.5204356882233</v>
       </c>
       <c r="M30" t="n">
-        <v>614.0794739850223</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N30" t="n">
-        <v>614.0794739850223</v>
+        <v>224.2679027043308</v>
       </c>
       <c r="O30" t="n">
         <v>196.0714004656333</v>
       </c>
       <c r="P30" t="n">
-        <v>149.4556031887044</v>
+        <v>187.4892432312895</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R30" t="n">
-        <v>15.3694919957804</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45770761081158</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K31" t="n">
         <v>260.0245582390401</v>
@@ -37007,10 +37007,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q31" t="n">
-        <v>141.0823472682185</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.90401363354391</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K32" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="L32" t="n">
-        <v>231.477168144814</v>
+        <v>272.7244045198889</v>
       </c>
       <c r="M32" t="n">
         <v>256.8166895256138</v>
@@ -37083,16 +37083,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O32" t="n">
-        <v>614.0794739850223</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P32" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R32" t="n">
-        <v>37.93557559643432</v>
+        <v>37.93557559643435</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J33" t="n">
-        <v>49.42156339310204</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
         <v>116.4417518861723</v>
@@ -37156,22 +37156,22 @@
         <v>175.5204356882233</v>
       </c>
       <c r="M33" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N33" t="n">
-        <v>614.0794739850223</v>
+        <v>224.2679027043308</v>
       </c>
       <c r="O33" t="n">
-        <v>516.6832492038697</v>
+        <v>234.1050405082183</v>
       </c>
       <c r="P33" t="n">
         <v>149.4556031887044</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R33" t="n">
-        <v>96.09432876077557</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45770761081158</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K34" t="n">
         <v>260.0245582390401</v>
@@ -37244,10 +37244,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.0823472682185</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.90401363354391</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K35" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L35" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M35" t="n">
         <v>256.8166895256138</v>
@@ -37320,16 +37320,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O35" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P35" t="n">
-        <v>507.608563704855</v>
+        <v>193.0722806754569</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3897386224696</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R35" t="n">
-        <v>37.93557559643432</v>
+        <v>119.5027950362038</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J36" t="n">
-        <v>49.42156339310204</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K36" t="n">
         <v>116.4417518861723</v>
       </c>
       <c r="L36" t="n">
-        <v>321.783419439635</v>
+        <v>175.5204356882233</v>
       </c>
       <c r="M36" t="n">
-        <v>507.608563704855</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N36" t="n">
         <v>224.2679027043308</v>
       </c>
       <c r="O36" t="n">
-        <v>196.0714004656333</v>
+        <v>234.1050405082186</v>
       </c>
       <c r="P36" t="n">
-        <v>507.608563704855</v>
+        <v>149.4556031887044</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R36" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.79976454885564</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K37" t="n">
-        <v>51.66072633427832</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L37" t="n">
         <v>395.4927509205153</v>
       </c>
       <c r="M37" t="n">
-        <v>432.3845874657028</v>
+        <v>83.93372937046493</v>
       </c>
       <c r="N37" t="n">
-        <v>420.5405985836038</v>
+        <v>347.4096705189868</v>
       </c>
       <c r="O37" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P37" t="n">
-        <v>295.9140269494828</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.5328925148477</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>425.9806064494319</v>
+        <v>379.2693742971399</v>
       </c>
       <c r="K38" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L38" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M38" t="n">
         <v>256.8166895256138</v>
@@ -37557,16 +37557,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O38" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P38" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q38" t="n">
-        <v>206.8494288359799</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R38" t="n">
-        <v>37.93557559643432</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J39" t="n">
-        <v>49.42156339310204</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K39" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287581</v>
       </c>
       <c r="L39" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M39" t="n">
-        <v>370.5308864557423</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N39" t="n">
-        <v>507.608563704855</v>
+        <v>224.2679027043308</v>
       </c>
       <c r="O39" t="n">
         <v>196.0714004656333</v>
       </c>
       <c r="P39" t="n">
-        <v>507.608563704855</v>
+        <v>149.4556031887044</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R39" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.79976454885564</v>
+        <v>11.79976454885566</v>
       </c>
       <c r="K40" t="n">
-        <v>260.0245582390401</v>
+        <v>51.66072633427835</v>
       </c>
       <c r="L40" t="n">
         <v>395.4927509205153</v>
@@ -37718,10 +37718,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P40" t="n">
-        <v>87.55019504472128</v>
+        <v>295.9140269494831</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.5328925148477</v>
+        <v>13.53289251484773</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>425.9806064494319</v>
+        <v>95.90401363354394</v>
       </c>
       <c r="K41" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L41" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M41" t="n">
         <v>256.8166895256138</v>
@@ -37794,16 +37794,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O41" t="n">
-        <v>242.7556447940599</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P41" t="n">
-        <v>274.6395001152267</v>
+        <v>193.0722806754569</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.2822093962101</v>
+        <v>408.6475700598061</v>
       </c>
       <c r="R41" t="n">
-        <v>37.93557559643432</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K42" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287581</v>
       </c>
       <c r="L42" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M42" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N42" t="n">
         <v>224.2679027043308</v>
@@ -37876,13 +37876,13 @@
         <v>196.0714004656333</v>
       </c>
       <c r="P42" t="n">
-        <v>276.3475427029888</v>
+        <v>149.4556031887044</v>
       </c>
       <c r="Q42" t="n">
-        <v>489.5564889747691</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R42" t="n">
-        <v>7.236029289077344</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.79976454885564</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K43" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681936</v>
       </c>
       <c r="L43" t="n">
         <v>395.4927509205153</v>
@@ -37955,10 +37955,10 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P43" t="n">
-        <v>87.55019504472128</v>
+        <v>52.39177180024107</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.5328925148477</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>425.9806064494319</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K44" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L44" t="n">
-        <v>219.1629504643084</v>
+        <v>219.1629504643085</v>
       </c>
       <c r="M44" t="n">
         <v>256.8166895256138</v>
@@ -38031,16 +38031,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O44" t="n">
-        <v>242.7556447940599</v>
+        <v>324.3228642338294</v>
       </c>
       <c r="P44" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q44" t="n">
-        <v>206.8494288359799</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R44" t="n">
-        <v>37.93557559643432</v>
+        <v>37.93557559643435</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K45" t="n">
-        <v>507.608563704855</v>
+        <v>116.4417518861723</v>
       </c>
       <c r="L45" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M45" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N45" t="n">
         <v>224.2679027043308</v>
@@ -38113,13 +38113,13 @@
         <v>196.0714004656333</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3932970729852</v>
+        <v>187.4892432312902</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.48562331439166</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R45" t="n">
-        <v>96.09432876077557</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.79976454885564</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K46" t="n">
-        <v>51.66072633427832</v>
+        <v>101.9755836681932</v>
       </c>
       <c r="L46" t="n">
         <v>395.4927509205153</v>
@@ -38189,13 +38189,13 @@
         <v>420.5405985836038</v>
       </c>
       <c r="O46" t="n">
-        <v>241.0394593916288</v>
+        <v>388.5994705847658</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9245833892492</v>
+        <v>52.39177180024107</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0823472682185</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
